--- a/Code/Results/Cases/Case_8_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.239056834053429</v>
+        <v>1.087560017736962</v>
       </c>
       <c r="C2">
-        <v>0.1647599090594127</v>
+        <v>0.1994096825073655</v>
       </c>
       <c r="D2">
-        <v>0.006524372652926047</v>
+        <v>0.01192671566453285</v>
       </c>
       <c r="E2">
-        <v>0.01239887529410577</v>
+        <v>0.01920124623400099</v>
       </c>
       <c r="F2">
-        <v>1.907067758805439</v>
+        <v>1.541199299853986</v>
       </c>
       <c r="G2">
-        <v>0.0008587878272111357</v>
+        <v>0.07383165119389457</v>
       </c>
       <c r="H2">
-        <v>0.04006500717459027</v>
+        <v>0.0237899871853855</v>
       </c>
       <c r="I2">
-        <v>0.04515600075238213</v>
+        <v>0.02330837227330296</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.157786110781572</v>
+        <v>0.8849043052901422</v>
       </c>
       <c r="L2">
-        <v>0.03656411100646473</v>
+        <v>0.3458702159363085</v>
       </c>
       <c r="M2">
-        <v>1.295806015824894</v>
+        <v>0.3167435400778515</v>
       </c>
       <c r="N2">
-        <v>0.1500826990911079</v>
+        <v>0.0421067968368849</v>
       </c>
       <c r="O2">
-        <v>0.252990779010215</v>
+        <v>1.218500897387599</v>
       </c>
       <c r="P2">
-        <v>1.990242128289879</v>
+        <v>0.1792941244014941</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2398393155123415</v>
+      </c>
+      <c r="R2">
+        <v>1.596597276838793</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.09128412344856</v>
+        <v>0.9559000271580658</v>
       </c>
       <c r="C3">
-        <v>0.1435810376423348</v>
+        <v>0.1719760332709797</v>
       </c>
       <c r="D3">
-        <v>0.005808346502472972</v>
+        <v>0.01042856698630246</v>
       </c>
       <c r="E3">
-        <v>0.01115996884939108</v>
+        <v>0.01812828002957101</v>
       </c>
       <c r="F3">
-        <v>1.821607416991156</v>
+        <v>1.471720281051248</v>
       </c>
       <c r="G3">
-        <v>0.0008629072299522341</v>
+        <v>0.08352875116552028</v>
       </c>
       <c r="H3">
-        <v>0.04668816073487703</v>
+        <v>0.02803444201049943</v>
       </c>
       <c r="I3">
-        <v>0.05242188377639545</v>
+        <v>0.02736569898909647</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.118351468305661</v>
+        <v>0.8576760306321916</v>
       </c>
       <c r="L3">
-        <v>0.03385400386132531</v>
+        <v>0.3422830990009658</v>
       </c>
       <c r="M3">
-        <v>1.13972196467202</v>
+        <v>0.3018378485837907</v>
       </c>
       <c r="N3">
-        <v>0.134755670135668</v>
+        <v>0.03998418179308416</v>
       </c>
       <c r="O3">
-        <v>0.2239964691374645</v>
+        <v>1.066543175073463</v>
       </c>
       <c r="P3">
-        <v>2.000100574740877</v>
+        <v>0.1619204829955265</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.212012451640291</v>
+      </c>
+      <c r="R3">
+        <v>1.614629524462302</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.000474439972152</v>
+        <v>0.8745938060830269</v>
       </c>
       <c r="C4">
-        <v>0.1308865917947486</v>
+        <v>0.1553803506457427</v>
       </c>
       <c r="D4">
-        <v>0.005381610816073135</v>
+        <v>0.009533074935358599</v>
       </c>
       <c r="E4">
-        <v>0.01040549253684375</v>
+        <v>0.01746622695727762</v>
       </c>
       <c r="F4">
-        <v>1.769618965034155</v>
+        <v>1.429043578663524</v>
       </c>
       <c r="G4">
-        <v>0.000865526978201159</v>
+        <v>0.09000133417146206</v>
       </c>
       <c r="H4">
-        <v>0.05116141041372702</v>
+        <v>0.03091757955294461</v>
       </c>
       <c r="I4">
-        <v>0.05735726326641721</v>
+        <v>0.03015999031993077</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.094230135403599</v>
+        <v>0.840773471865262</v>
       </c>
       <c r="L4">
-        <v>0.03217727808070237</v>
+        <v>0.3397826063040341</v>
       </c>
       <c r="M4">
-        <v>1.04422263537171</v>
+        <v>0.2933731405979998</v>
       </c>
       <c r="N4">
-        <v>0.1254026606537977</v>
+        <v>0.03865616263258564</v>
       </c>
       <c r="O4">
-        <v>0.2062144041351637</v>
+        <v>0.9731421338502741</v>
       </c>
       <c r="P4">
-        <v>2.006280612494081</v>
+        <v>0.1513357087814811</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1949006838030378</v>
+      </c>
+      <c r="R4">
+        <v>1.625663064515166</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9624957808271688</v>
+        <v>0.8404837817053021</v>
       </c>
       <c r="C5">
-        <v>0.1259950642638898</v>
+        <v>0.1488905387675317</v>
       </c>
       <c r="D5">
-        <v>0.005236855750570868</v>
+        <v>0.009208820839049281</v>
       </c>
       <c r="E5">
-        <v>0.0100973266166493</v>
+        <v>0.01719387303836406</v>
       </c>
       <c r="F5">
-        <v>1.747094488985951</v>
+        <v>1.410372721894774</v>
       </c>
       <c r="G5">
-        <v>0.000866625902308682</v>
+        <v>0.09278720914902649</v>
       </c>
       <c r="H5">
-        <v>0.05309812883734022</v>
+        <v>0.03216962994818484</v>
       </c>
       <c r="I5">
-        <v>0.05960227291634146</v>
+        <v>0.03148972000401518</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.083349627879024</v>
+        <v>0.8329389443947619</v>
       </c>
       <c r="L5">
-        <v>0.03146853013524886</v>
+        <v>0.3382998115941618</v>
       </c>
       <c r="M5">
-        <v>1.004918985872507</v>
+        <v>0.2898129620667014</v>
       </c>
       <c r="N5">
-        <v>0.1217057417727361</v>
+        <v>0.03809141661397586</v>
       </c>
       <c r="O5">
-        <v>0.1988901428235579</v>
+        <v>0.9346194104961114</v>
       </c>
       <c r="P5">
-        <v>2.007541331620324</v>
+        <v>0.1471443589951633</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.187843856564637</v>
+      </c>
+      <c r="R5">
+        <v>1.629147791231347</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9550303982214245</v>
+        <v>0.8337646387298321</v>
       </c>
       <c r="C6">
-        <v>0.1254441765467504</v>
+        <v>0.1480802000413064</v>
       </c>
       <c r="D6">
-        <v>0.005245128191599946</v>
+        <v>0.009197936159978326</v>
       </c>
       <c r="E6">
-        <v>0.01004404178045171</v>
+        <v>0.01714674716773246</v>
       </c>
       <c r="F6">
-        <v>1.741587091533319</v>
+        <v>1.40571922810453</v>
       </c>
       <c r="G6">
-        <v>0.0008668199028409435</v>
+        <v>0.09328358023932903</v>
       </c>
       <c r="H6">
-        <v>0.05344353243234412</v>
+        <v>0.03239323692055041</v>
       </c>
       <c r="I6">
-        <v>0.06013337197212554</v>
+        <v>0.0318666190503345</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.080235997716343</v>
+        <v>0.8305372395697717</v>
       </c>
       <c r="L6">
-        <v>0.0313244782620643</v>
+        <v>0.337575001942632</v>
       </c>
       <c r="M6">
-        <v>0.997835990044706</v>
+        <v>0.2888861453892169</v>
       </c>
       <c r="N6">
-        <v>0.121217154403098</v>
+        <v>0.0379767291844022</v>
       </c>
       <c r="O6">
-        <v>0.1975747493556135</v>
+        <v>0.9276962519910512</v>
       </c>
       <c r="P6">
-        <v>2.006181170006116</v>
+        <v>0.146575399612118</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1865786249180204</v>
+      </c>
+      <c r="R6">
+        <v>1.628506063358884</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9967907113255592</v>
+        <v>0.8686827570628566</v>
       </c>
       <c r="C7">
-        <v>0.1315235883528914</v>
+        <v>0.1540237559929665</v>
       </c>
       <c r="D7">
-        <v>0.005467626243541801</v>
+        <v>0.009976444520905403</v>
       </c>
       <c r="E7">
-        <v>0.01039539158208402</v>
+        <v>0.01752902533108092</v>
       </c>
       <c r="F7">
-        <v>1.764471563846229</v>
+        <v>1.416753116234915</v>
       </c>
       <c r="G7">
-        <v>0.000865568968699901</v>
+        <v>0.09085389576139935</v>
       </c>
       <c r="H7">
-        <v>0.05123423166032959</v>
+        <v>0.03101663816074884</v>
       </c>
       <c r="I7">
-        <v>0.05778039341433683</v>
+        <v>0.03063098620573879</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.090511782550877</v>
+        <v>0.8332551088289222</v>
       </c>
       <c r="L7">
-        <v>0.03209637269956733</v>
+        <v>0.3366163823337658</v>
       </c>
       <c r="M7">
-        <v>1.042155330486281</v>
+        <v>0.29093310403006</v>
       </c>
       <c r="N7">
-        <v>0.1256936699044999</v>
+        <v>0.03855624514304967</v>
       </c>
       <c r="O7">
-        <v>0.2058433807616424</v>
+        <v>0.9660639275219864</v>
       </c>
       <c r="P7">
-        <v>2.002024845554068</v>
+        <v>0.1514403238412925</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1940836228712968</v>
+      </c>
+      <c r="R7">
+        <v>1.616998847355077</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.183873153757787</v>
+        <v>1.029783425824263</v>
       </c>
       <c r="C8">
-        <v>0.1583250590211662</v>
+        <v>0.1841800823104762</v>
       </c>
       <c r="D8">
-        <v>0.006392642147908134</v>
+        <v>0.0127009030621501</v>
       </c>
       <c r="E8">
-        <v>0.01196207831555718</v>
+        <v>0.01906678125338601</v>
       </c>
       <c r="F8">
-        <v>1.871095045821747</v>
+        <v>1.485994006455172</v>
       </c>
       <c r="G8">
-        <v>0.0008602240560113496</v>
+        <v>0.08015467266487519</v>
       </c>
       <c r="H8">
-        <v>0.04231664087362486</v>
+        <v>0.02537790389008399</v>
       </c>
       <c r="I8">
-        <v>0.04802998447005624</v>
+        <v>0.02528865359235333</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.139451407124433</v>
+        <v>0.8571693561894094</v>
       </c>
       <c r="L8">
-        <v>0.03553704100664934</v>
+        <v>0.337277860028486</v>
       </c>
       <c r="M8">
-        <v>1.239849967697637</v>
+        <v>0.3051369896045522</v>
       </c>
       <c r="N8">
-        <v>0.1452398484322686</v>
+        <v>0.04118798917419708</v>
       </c>
       <c r="O8">
-        <v>0.2426238693389067</v>
+        <v>1.147042868083759</v>
       </c>
       <c r="P8">
-        <v>1.988051036836794</v>
+        <v>0.1731329076451047</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2283427586215971</v>
+      </c>
+      <c r="R8">
+        <v>1.581396557249178</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.556292960979221</v>
+        <v>1.356688166748228</v>
       </c>
       <c r="C9">
-        <v>0.2123619192040849</v>
+        <v>0.2513623040704829</v>
       </c>
       <c r="D9">
-        <v>0.008160515885855091</v>
+        <v>0.01679536104695956</v>
       </c>
       <c r="E9">
-        <v>0.01511856935832068</v>
+        <v>0.02181080283681158</v>
       </c>
       <c r="F9">
-        <v>2.093169536194381</v>
+        <v>1.657574094230952</v>
       </c>
       <c r="G9">
-        <v>0.0008503990518410571</v>
+        <v>0.05919657753837715</v>
       </c>
       <c r="H9">
-        <v>0.02813146130877886</v>
+        <v>0.01637828796517271</v>
       </c>
       <c r="I9">
-        <v>0.03223914430733732</v>
+        <v>0.01649141301381807</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.242709369599595</v>
+        <v>0.9238895978695467</v>
       </c>
       <c r="L9">
-        <v>0.04235373433813017</v>
+        <v>0.3451167286527053</v>
       </c>
       <c r="M9">
-        <v>1.633670054669238</v>
+        <v>0.3454454886734979</v>
       </c>
       <c r="N9">
-        <v>0.1834922190744805</v>
+        <v>0.04640368962510433</v>
       </c>
       <c r="O9">
-        <v>0.3155032736481189</v>
+        <v>1.522649704447389</v>
       </c>
       <c r="P9">
-        <v>1.969256753261533</v>
+        <v>0.2164368041578655</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2975276152542605</v>
+      </c>
+      <c r="R9">
+        <v>1.536380617290213</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.817873548471141</v>
+        <v>1.56960115248674</v>
       </c>
       <c r="C10">
-        <v>0.2542138828287079</v>
+        <v>0.2899053333685799</v>
       </c>
       <c r="D10">
-        <v>0.009413031520821846</v>
+        <v>0.02188217810511972</v>
       </c>
       <c r="E10">
-        <v>0.01688666525791849</v>
+        <v>0.02361239223113554</v>
       </c>
       <c r="F10">
-        <v>2.231007062116106</v>
+        <v>1.717173785182439</v>
       </c>
       <c r="G10">
-        <v>0.000843735273727738</v>
+        <v>0.05583981915854608</v>
       </c>
       <c r="H10">
-        <v>0.02053230947189943</v>
+        <v>0.01189590997253243</v>
       </c>
       <c r="I10">
-        <v>0.02363601102093504</v>
+        <v>0.01216271256530277</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.302317084353334</v>
+        <v>0.9352326110849347</v>
       </c>
       <c r="L10">
-        <v>0.04637345500072865</v>
+        <v>0.3363117999365954</v>
       </c>
       <c r="M10">
-        <v>1.915650038491719</v>
+        <v>0.3639779797798042</v>
       </c>
       <c r="N10">
-        <v>0.2052297601359641</v>
+        <v>0.04931912744363753</v>
       </c>
       <c r="O10">
-        <v>0.3639382434872118</v>
+        <v>1.758938979146109</v>
       </c>
       <c r="P10">
-        <v>1.935760162047927</v>
+        <v>0.2401226345692749</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3404121477819615</v>
+      </c>
+      <c r="R10">
+        <v>1.463433820729676</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.836236847232783</v>
+        <v>1.562065261568023</v>
       </c>
       <c r="C11">
-        <v>0.2722168617101488</v>
+        <v>0.2816770554195216</v>
       </c>
       <c r="D11">
-        <v>0.008632564113931096</v>
+        <v>0.02554972865997485</v>
       </c>
       <c r="E11">
-        <v>0.01372328040208126</v>
+        <v>0.02038397520581947</v>
       </c>
       <c r="F11">
-        <v>2.06300395452233</v>
+        <v>1.495493706167451</v>
       </c>
       <c r="G11">
-        <v>0.0008419471829142061</v>
+        <v>0.08962619986081322</v>
       </c>
       <c r="H11">
-        <v>0.03859442293790849</v>
+        <v>0.03061396995773791</v>
       </c>
       <c r="I11">
-        <v>0.02232835942987155</v>
+        <v>0.01216634297673913</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.19448844857169</v>
+        <v>0.8072943335698284</v>
       </c>
       <c r="L11">
-        <v>0.04389436913488609</v>
+        <v>0.2859934667590274</v>
       </c>
       <c r="M11">
-        <v>1.957646205707846</v>
+        <v>0.3195890795386305</v>
       </c>
       <c r="N11">
-        <v>0.1592707956758304</v>
+        <v>0.04899392201725927</v>
       </c>
       <c r="O11">
-        <v>0.3404044164833309</v>
+        <v>1.738510694887594</v>
       </c>
       <c r="P11">
-        <v>1.764841335330701</v>
+        <v>0.1871795380434094</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3123512505073478</v>
+      </c>
+      <c r="R11">
+        <v>1.305211126527176</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.800378348586946</v>
+        <v>1.524409087716748</v>
       </c>
       <c r="C12">
-        <v>0.2771542253766199</v>
+        <v>0.2726851306302365</v>
       </c>
       <c r="D12">
-        <v>0.007610167470033957</v>
+        <v>0.02581400085844621</v>
       </c>
       <c r="E12">
-        <v>0.01267885815612152</v>
+        <v>0.01859230708900661</v>
       </c>
       <c r="F12">
-        <v>1.90421025516612</v>
+        <v>1.338257097082447</v>
       </c>
       <c r="G12">
-        <v>0.0008417088753835186</v>
+        <v>0.1147312707863151</v>
       </c>
       <c r="H12">
-        <v>0.07770680377593209</v>
+        <v>0.06975105947809368</v>
       </c>
       <c r="I12">
-        <v>0.02219042961800799</v>
+        <v>0.01221032311733161</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.100206659331796</v>
+        <v>0.7226462854470554</v>
       </c>
       <c r="L12">
-        <v>0.04674834080611845</v>
+        <v>0.255159181744947</v>
       </c>
       <c r="M12">
-        <v>1.934405548756956</v>
+        <v>0.2875244628446652</v>
       </c>
       <c r="N12">
-        <v>0.1210673733927905</v>
+        <v>0.05375522979312564</v>
       </c>
       <c r="O12">
-        <v>0.3114502906034389</v>
+        <v>1.6921032197709</v>
       </c>
       <c r="P12">
-        <v>1.646719371046011</v>
+        <v>0.1439118145613918</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2827441358889828</v>
+      </c>
+      <c r="R12">
+        <v>1.226230257888673</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.71584906055304</v>
+        <v>1.463332441152659</v>
       </c>
       <c r="C13">
-        <v>0.2732845902013992</v>
+        <v>0.2681796720708576</v>
       </c>
       <c r="D13">
-        <v>0.006483907460321348</v>
+        <v>0.02262157760808492</v>
       </c>
       <c r="E13">
-        <v>0.01315698724106706</v>
+        <v>0.0181620606642714</v>
       </c>
       <c r="F13">
-        <v>1.735973424234729</v>
+        <v>1.223988744674003</v>
       </c>
       <c r="G13">
-        <v>0.000842688841438191</v>
+        <v>0.1101937601741483</v>
       </c>
       <c r="H13">
-        <v>0.1347731978577116</v>
+        <v>0.126286258473769</v>
       </c>
       <c r="I13">
-        <v>0.02342911789179958</v>
+        <v>0.01279249538230598</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.005409507128988</v>
+        <v>0.6655586556614494</v>
       </c>
       <c r="L13">
-        <v>0.05360829965134783</v>
+        <v>0.2359846279365563</v>
       </c>
       <c r="M13">
-        <v>1.85712574387145</v>
+        <v>0.263851277981761</v>
       </c>
       <c r="N13">
-        <v>0.08736813929283471</v>
+        <v>0.06251420171611954</v>
       </c>
       <c r="O13">
-        <v>0.2764342371626967</v>
+        <v>1.633122535316971</v>
       </c>
       <c r="P13">
-        <v>1.555177219802218</v>
+        <v>0.1063759488949145</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2507906346757416</v>
+      </c>
+      <c r="R13">
+        <v>1.191641453446181</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.634182565158824</v>
+        <v>1.408738305800256</v>
       </c>
       <c r="C14">
-        <v>0.2668317219727783</v>
+        <v>0.2669533039219516</v>
       </c>
       <c r="D14">
-        <v>0.005683834811140542</v>
+        <v>0.01914005749673819</v>
       </c>
       <c r="E14">
-        <v>0.0144298519822339</v>
+        <v>0.01900152042027159</v>
       </c>
       <c r="F14">
-        <v>1.614347925380059</v>
+        <v>1.159324723655146</v>
       </c>
       <c r="G14">
-        <v>0.0008439292392788208</v>
+        <v>0.09476228478614601</v>
       </c>
       <c r="H14">
-        <v>0.185438116059629</v>
+        <v>0.1763202410172653</v>
       </c>
       <c r="I14">
-        <v>0.02506708353360576</v>
+        <v>0.01358252519174474</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.938965588467461</v>
+        <v>0.6354068863565345</v>
       </c>
       <c r="L14">
-        <v>0.06090494518986134</v>
+        <v>0.2266198092873211</v>
       </c>
       <c r="M14">
-        <v>1.77849974581963</v>
+        <v>0.2503158591233472</v>
       </c>
       <c r="N14">
-        <v>0.06686067945640062</v>
+        <v>0.07108819582368398</v>
       </c>
       <c r="O14">
-        <v>0.2494724128777221</v>
+        <v>1.584765984836196</v>
       </c>
       <c r="P14">
-        <v>1.504080279223643</v>
+        <v>0.08361320669617101</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2273571879320606</v>
+      </c>
+      <c r="R14">
+        <v>1.182664815339187</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.603021096031</v>
+        <v>1.38886308211741</v>
       </c>
       <c r="C15">
-        <v>0.2637086768170036</v>
+        <v>0.2675089332285552</v>
       </c>
       <c r="D15">
-        <v>0.005490262179613126</v>
+        <v>0.01781130749515469</v>
       </c>
       <c r="E15">
-        <v>0.01479779664590897</v>
+        <v>0.0193779289740732</v>
       </c>
       <c r="F15">
-        <v>1.580856353802744</v>
+        <v>1.148179463487992</v>
       </c>
       <c r="G15">
-        <v>0.0008445126475106336</v>
+        <v>0.0868178551108052</v>
       </c>
       <c r="H15">
-        <v>0.1985680794019942</v>
+        <v>0.1891465796681047</v>
       </c>
       <c r="I15">
-        <v>0.02595209518697139</v>
+        <v>0.0140777220038526</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.921251652597654</v>
+        <v>0.6310602597055279</v>
       </c>
       <c r="L15">
-        <v>0.06279826011217793</v>
+        <v>0.2256634204185204</v>
       </c>
       <c r="M15">
-        <v>1.747570258733276</v>
+        <v>0.2478273190106428</v>
       </c>
       <c r="N15">
-        <v>0.06219262116533741</v>
+        <v>0.07331620601003053</v>
       </c>
       <c r="O15">
-        <v>0.2415023617556677</v>
+        <v>1.568669938381959</v>
       </c>
       <c r="P15">
-        <v>1.494772781004841</v>
+        <v>0.07851008767853074</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2208414053206766</v>
+      </c>
+      <c r="R15">
+        <v>1.18515436177154</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507678615857515</v>
+        <v>1.332301576217588</v>
       </c>
       <c r="C16">
-        <v>0.246610968560816</v>
+        <v>0.2702059273342741</v>
       </c>
       <c r="D16">
-        <v>0.005240517042734538</v>
+        <v>0.01345141416836881</v>
       </c>
       <c r="E16">
-        <v>0.01390849791751414</v>
+        <v>0.01927454722635069</v>
       </c>
       <c r="F16">
-        <v>1.555348743356049</v>
+        <v>1.194501569812701</v>
       </c>
       <c r="G16">
-        <v>0.0008471676413179189</v>
+        <v>0.06054477916399037</v>
       </c>
       <c r="H16">
-        <v>0.1889920355134791</v>
+        <v>0.1780850414039463</v>
       </c>
       <c r="I16">
-        <v>0.02949711267440769</v>
+        <v>0.01574448074491386</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9141090758312416</v>
+        <v>0.6621800344989097</v>
       </c>
       <c r="L16">
-        <v>0.05942792483897819</v>
+        <v>0.2396041514309921</v>
       </c>
       <c r="M16">
-        <v>1.642250739327551</v>
+        <v>0.2562288082728159</v>
       </c>
       <c r="N16">
-        <v>0.06084939828891223</v>
+        <v>0.07023418265166725</v>
       </c>
       <c r="O16">
-        <v>0.22863470564414</v>
+        <v>1.524897721118407</v>
       </c>
       <c r="P16">
-        <v>1.524534355452751</v>
+        <v>0.07803576665729395</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2130528976957287</v>
+      </c>
+      <c r="R16">
+        <v>1.230517529797034</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.477638711937203</v>
+        <v>1.313931796365722</v>
       </c>
       <c r="C17">
-        <v>0.2370541237192185</v>
+        <v>0.2699514050508753</v>
       </c>
       <c r="D17">
-        <v>0.005473156290541681</v>
+        <v>0.01234984327526689</v>
       </c>
       <c r="E17">
-        <v>0.01237996086660065</v>
+        <v>0.01820914535682583</v>
       </c>
       <c r="F17">
-        <v>1.599440407593335</v>
+        <v>1.258515431331062</v>
       </c>
       <c r="G17">
-        <v>0.0008485533517875677</v>
+        <v>0.05573974136251358</v>
       </c>
       <c r="H17">
-        <v>0.1529757717198379</v>
+        <v>0.1412755762186322</v>
       </c>
       <c r="I17">
-        <v>0.03140548896313078</v>
+        <v>0.01668028794570731</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9432646340163657</v>
+        <v>0.6994800873116631</v>
       </c>
       <c r="L17">
-        <v>0.05250550597688175</v>
+        <v>0.2549586814636911</v>
       </c>
       <c r="M17">
-        <v>1.603197730276122</v>
+        <v>0.2683370222522612</v>
       </c>
       <c r="N17">
-        <v>0.07004967335136314</v>
+        <v>0.06283000542977746</v>
       </c>
       <c r="O17">
-        <v>0.232830181425161</v>
+        <v>1.509370470890502</v>
       </c>
       <c r="P17">
-        <v>1.573535122628641</v>
+        <v>0.0890889514197184</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2188839406843748</v>
+      </c>
+      <c r="R17">
+        <v>1.273452820803513</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.50257717805161</v>
+        <v>1.334417340702032</v>
       </c>
       <c r="C18">
-        <v>0.2320844025886402</v>
+        <v>0.2706953702245869</v>
       </c>
       <c r="D18">
-        <v>0.006108971305952338</v>
+        <v>0.0128637656534849</v>
       </c>
       <c r="E18">
-        <v>0.01108491467603812</v>
+        <v>0.01716663512384109</v>
       </c>
       <c r="F18">
-        <v>1.714756704748069</v>
+        <v>1.363823868550753</v>
       </c>
       <c r="G18">
-        <v>0.0008489293371942593</v>
+        <v>0.05448193714814842</v>
       </c>
       <c r="H18">
-        <v>0.1004731110385961</v>
+        <v>0.08859556738149621</v>
       </c>
       <c r="I18">
-        <v>0.03154555638542167</v>
+        <v>0.01654571933098481</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.011640983514006</v>
+        <v>0.757023177705193</v>
       </c>
       <c r="L18">
-        <v>0.04440227494260007</v>
+        <v>0.2770612731591839</v>
       </c>
       <c r="M18">
-        <v>1.617312866987078</v>
+        <v>0.2890797803395131</v>
       </c>
       <c r="N18">
-        <v>0.09215563847045161</v>
+        <v>0.05349334494355062</v>
       </c>
       <c r="O18">
-        <v>0.2528905227519402</v>
+        <v>1.528806088750628</v>
       </c>
       <c r="P18">
-        <v>1.653499159053887</v>
+        <v>0.1145304573275254</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2387455649289016</v>
+      </c>
+      <c r="R18">
+        <v>1.329411735353656</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.564203082107127</v>
+        <v>1.381805505549636</v>
       </c>
       <c r="C19">
-        <v>0.2324366283327777</v>
+        <v>0.2753660716376487</v>
       </c>
       <c r="D19">
-        <v>0.007217376888323912</v>
+        <v>0.01460841151567394</v>
       </c>
       <c r="E19">
-        <v>0.01148604886808346</v>
+        <v>0.01770155523765649</v>
       </c>
       <c r="F19">
-        <v>1.876831460755071</v>
+        <v>1.497631453469467</v>
       </c>
       <c r="G19">
-        <v>0.0008484475695054172</v>
+        <v>0.05319204677165557</v>
       </c>
       <c r="H19">
-        <v>0.0539618734339129</v>
+        <v>0.04249828812859846</v>
       </c>
       <c r="I19">
-        <v>0.03085379624947304</v>
+        <v>0.01624932312212213</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.105025594609479</v>
+        <v>0.827764880863171</v>
       </c>
       <c r="L19">
-        <v>0.03999099420253849</v>
+        <v>0.3033117296448111</v>
       </c>
       <c r="M19">
-        <v>1.67011069236338</v>
+        <v>0.3157023515572916</v>
       </c>
       <c r="N19">
-        <v>0.1280386393446946</v>
+        <v>0.04719427727989256</v>
       </c>
       <c r="O19">
-        <v>0.2848120432687296</v>
+        <v>1.576896385566727</v>
       </c>
       <c r="P19">
-        <v>1.757463100152094</v>
+        <v>0.1550809413572978</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2693386890575376</v>
+      </c>
+      <c r="R19">
+        <v>1.397087243672978</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.73848749942627</v>
+        <v>1.514008032510958</v>
       </c>
       <c r="C20">
-        <v>0.2452921190856046</v>
+        <v>0.289320873753212</v>
       </c>
       <c r="D20">
-        <v>0.009358109053376751</v>
+        <v>0.01957176206870059</v>
       </c>
       <c r="E20">
-        <v>0.01636773535188585</v>
+        <v>0.02283126205479391</v>
       </c>
       <c r="F20">
-        <v>2.178514962258575</v>
+        <v>1.715059929543884</v>
       </c>
       <c r="G20">
-        <v>0.0008455384847445533</v>
+        <v>0.05088429113996629</v>
       </c>
       <c r="H20">
-        <v>0.02246077909568545</v>
+        <v>0.01292182671399456</v>
       </c>
       <c r="I20">
-        <v>0.02678147693998856</v>
+        <v>0.01421469884363358</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.274974146372884</v>
+        <v>0.9380538903639248</v>
       </c>
       <c r="L20">
-        <v>0.04505321694183007</v>
+        <v>0.3406659019413496</v>
       </c>
       <c r="M20">
-        <v>1.835990604118564</v>
+        <v>0.3612405770504381</v>
       </c>
       <c r="N20">
-        <v>0.2002829311446988</v>
+        <v>0.04849938867626058</v>
       </c>
       <c r="O20">
-        <v>0.3501078716893176</v>
+        <v>1.710943912236957</v>
       </c>
       <c r="P20">
-        <v>1.931192872589534</v>
+        <v>0.2353155524578625</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3298739767830341</v>
+      </c>
+      <c r="R20">
+        <v>1.489624105053082</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.958504483395927</v>
+        <v>1.640878348715972</v>
       </c>
       <c r="C21">
-        <v>0.2782001392930908</v>
+        <v>0.2820527894634779</v>
       </c>
       <c r="D21">
-        <v>0.01057150744503588</v>
+        <v>0.03203604588741626</v>
       </c>
       <c r="E21">
-        <v>0.01873697126574481</v>
+        <v>0.02688184633748136</v>
       </c>
       <c r="F21">
-        <v>2.329468886193126</v>
+        <v>1.655745390019291</v>
       </c>
       <c r="G21">
-        <v>0.000840315339675677</v>
+        <v>0.1092283266108538</v>
       </c>
       <c r="H21">
-        <v>0.01655255194559535</v>
+        <v>0.009747768146211422</v>
       </c>
       <c r="I21">
-        <v>0.02051973312137267</v>
+        <v>0.01151826320056593</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.347141553427385</v>
+        <v>0.888631728019547</v>
       </c>
       <c r="L21">
-        <v>0.04972020008487199</v>
+        <v>0.3138790467863757</v>
       </c>
       <c r="M21">
-        <v>2.069504624163301</v>
+        <v>0.3527764981636992</v>
       </c>
       <c r="N21">
-        <v>0.2277216731814775</v>
+        <v>0.05110803369598127</v>
       </c>
       <c r="O21">
-        <v>0.3957331643532953</v>
+        <v>1.806466414700452</v>
       </c>
       <c r="P21">
-        <v>1.937312770159565</v>
+        <v>0.261841702079721</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3614242088567536</v>
+      </c>
+      <c r="R21">
+        <v>1.374148965320359</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.101360338074016</v>
+        <v>1.718262629276722</v>
       </c>
       <c r="C22">
-        <v>0.2991472875239367</v>
+        <v>0.2744802405466373</v>
       </c>
       <c r="D22">
-        <v>0.01117212329817008</v>
+        <v>0.04168403540020904</v>
       </c>
       <c r="E22">
-        <v>0.02000022307135563</v>
+        <v>0.02958308411776756</v>
       </c>
       <c r="F22">
-        <v>2.421867638582924</v>
+        <v>1.603384885585655</v>
       </c>
       <c r="G22">
-        <v>0.0008370097464181401</v>
+        <v>0.1956533584145461</v>
       </c>
       <c r="H22">
-        <v>0.01341657194783263</v>
+        <v>0.008088410419696268</v>
       </c>
       <c r="I22">
-        <v>0.0166844836966451</v>
+        <v>0.009595471593918603</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.391355332925187</v>
+        <v>0.8503482368921169</v>
       </c>
       <c r="L22">
-        <v>0.05239555071169022</v>
+        <v>0.295210967753583</v>
       </c>
       <c r="M22">
-        <v>2.220241824158649</v>
+        <v>0.3443747689306846</v>
       </c>
       <c r="N22">
-        <v>0.241753782719158</v>
+        <v>0.05259017246796027</v>
       </c>
       <c r="O22">
-        <v>0.4233504226541811</v>
+        <v>1.858331422738445</v>
       </c>
       <c r="P22">
-        <v>1.937280566990481</v>
+        <v>0.2745649869380458</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3789817041231984</v>
+      </c>
+      <c r="R22">
+        <v>1.298311718889885</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.02897982490498</v>
+        <v>1.687481522029429</v>
       </c>
       <c r="C23">
-        <v>0.2870669314367262</v>
+        <v>0.282637669598472</v>
       </c>
       <c r="D23">
-        <v>0.01073861771531526</v>
+        <v>0.0349546194439796</v>
       </c>
       <c r="E23">
-        <v>0.01933121337195232</v>
+        <v>0.02786395516443019</v>
       </c>
       <c r="F23">
-        <v>2.378142013458188</v>
+        <v>1.654405787006979</v>
       </c>
       <c r="G23">
-        <v>0.0008387412335981189</v>
+        <v>0.1308356480208275</v>
       </c>
       <c r="H23">
-        <v>0.01501857219640473</v>
+        <v>0.008889596265645755</v>
       </c>
       <c r="I23">
-        <v>0.01828957478859028</v>
+        <v>0.01011706205511498</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.371900582695588</v>
+        <v>0.8839010915014853</v>
       </c>
       <c r="L23">
-        <v>0.05105070243056531</v>
+        <v>0.3095788113043625</v>
       </c>
       <c r="M23">
-        <v>2.141610554072457</v>
+        <v>0.3542369486588655</v>
       </c>
       <c r="N23">
-        <v>0.2338362937298513</v>
+        <v>0.0519233307621132</v>
       </c>
       <c r="O23">
-        <v>0.4089361741762474</v>
+        <v>1.846095004825315</v>
       </c>
       <c r="P23">
-        <v>1.941984253833041</v>
+        <v>0.2678455158060729</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3712128990781594</v>
+      </c>
+      <c r="R23">
+        <v>1.350591384605586</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.749440509141493</v>
+        <v>1.523296575019884</v>
       </c>
       <c r="C24">
-        <v>0.2436974937280354</v>
+        <v>0.2883779747177755</v>
       </c>
       <c r="D24">
-        <v>0.009312974082888559</v>
+        <v>0.01947248586647632</v>
       </c>
       <c r="E24">
-        <v>0.01683940512418314</v>
+        <v>0.02330755738295576</v>
       </c>
       <c r="F24">
-        <v>2.205551854518006</v>
+        <v>1.738543374714354</v>
       </c>
       <c r="G24">
-        <v>0.0008454729036647392</v>
+        <v>0.0505307099309249</v>
       </c>
       <c r="H24">
-        <v>0.02209678272507842</v>
+        <v>0.01262601670514055</v>
       </c>
       <c r="I24">
-        <v>0.02608320623107563</v>
+        <v>0.01348178994023197</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.292302288732621</v>
+        <v>0.9520357227669578</v>
       </c>
       <c r="L24">
-        <v>0.04587673080663723</v>
+        <v>0.3458879203244649</v>
       </c>
       <c r="M24">
-        <v>1.84268101884166</v>
+        <v>0.3664660908450301</v>
       </c>
       <c r="N24">
-        <v>0.2047395484673586</v>
+        <v>0.04903020104647915</v>
       </c>
       <c r="O24">
-        <v>0.3540366935916737</v>
+        <v>1.717702813906726</v>
       </c>
       <c r="P24">
-        <v>1.953018416186822</v>
+        <v>0.2403525221527758</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3336835831810561</v>
+      </c>
+      <c r="R24">
+        <v>1.505254541191931</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.449633074401362</v>
+        <v>1.267116614783589</v>
       </c>
       <c r="C25">
-        <v>0.1986960266866475</v>
+        <v>0.237156365711769</v>
       </c>
       <c r="D25">
-        <v>0.007833313819048726</v>
+        <v>0.01538435348026113</v>
       </c>
       <c r="E25">
-        <v>0.0142419609976363</v>
+        <v>0.02095396458950471</v>
       </c>
       <c r="F25">
-        <v>2.023833092287148</v>
+        <v>1.614592444316614</v>
       </c>
       <c r="G25">
-        <v>0.0008530284113077156</v>
+        <v>0.06298575178503496</v>
       </c>
       <c r="H25">
-        <v>0.03164693046159739</v>
+        <v>0.01853987286018266</v>
       </c>
       <c r="I25">
-        <v>0.03668669058194496</v>
+        <v>0.01917537041269224</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.208231031330044</v>
+        <v>0.9068864672346777</v>
       </c>
       <c r="L25">
-        <v>0.04037992774214683</v>
+        <v>0.3435889113755835</v>
       </c>
       <c r="M25">
-        <v>1.523811861839619</v>
+        <v>0.3342814427602789</v>
       </c>
       <c r="N25">
-        <v>0.173703448183943</v>
+        <v>0.04496368886319146</v>
       </c>
       <c r="O25">
-        <v>0.2952405218821141</v>
+        <v>1.425835752025364</v>
       </c>
       <c r="P25">
-        <v>1.966772835157428</v>
+        <v>0.2055390307173752</v>
       </c>
       <c r="Q25">
+        <v>0.2790320820092589</v>
+      </c>
+      <c r="R25">
+        <v>1.550226487916504</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
